--- a/Lesson2.xlsx
+++ b/Lesson2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sutcfps2.sutc.internal\studentpersonal$\19outrams\Documents\GitHub\Y9-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5864D8-8F24-479C-9FE8-AED7B66A2B05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB8D440-BC72-472D-A6DF-4074A0A4305D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Product Name</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>£1000 Computer</t>
+  </si>
+  <si>
+    <t>£2000 Computer</t>
+  </si>
+  <si>
+    <t>£2500 Computer</t>
+  </si>
+  <si>
+    <t>£3000 Computer</t>
+  </si>
+  <si>
+    <t>£3500 Computer</t>
+  </si>
+  <si>
+    <t>£4000 Computer</t>
   </si>
 </sst>
 </file>
@@ -894,7 +909,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,23 +954,21 @@
       <c r="C2" s="4">
         <v>1050</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="7">
         <f>(C2*D2)</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>1000</v>
       </c>
       <c r="G2" s="6">
         <f>(F2*D2)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <f>(E2-G2)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -968,28 +981,26 @@
       <c r="C3" s="4">
         <v>750</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E22" si="0">(C3*D3)</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <v>500</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G22" si="1">(F3*D3)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H22" si="2">(E3-G3)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="8">
         <f>SUM(H2:H22)</f>
-        <v>1585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -999,23 +1010,21 @@
       <c r="C4" s="4">
         <v>500</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>300</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -1029,28 +1038,26 @@
       <c r="C5" s="4">
         <v>30</v>
       </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>15</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="8">
         <f>AVERAGE(H2:H22)</f>
-        <v>75.476190476190482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1060,23 +1067,21 @@
       <c r="C6" s="4">
         <v>60</v>
       </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>30</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1088,23 +1093,21 @@
       <c r="C7" s="4">
         <v>75</v>
       </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1116,36 +1119,40 @@
       <c r="C8" s="4">
         <v>1550</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>1500</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2050</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>2000</v>
+      </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1158,14 +1165,20 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2550</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>2500</v>
+      </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1178,14 +1191,20 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3050</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>3000</v>
+      </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1198,14 +1217,20 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3550</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>3500</v>
+      </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1218,14 +1243,20 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4050</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>4000</v>
+      </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
